--- a/src/test/java/ReadWriteExcel/TestData.xlsx
+++ b/src/test/java/ReadWriteExcel/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Naveen_Automation\Selenium\src\test\java\ReadWriteExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB2DCB7-988B-4FD6-AB71-D57F284260F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2C6FF0-249F-4A29-8FFD-B92225D223EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dataprovider" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -40,16 +41,54 @@
   </si>
   <si>
     <t>Profile name</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Kamleshkmr2@gmail.com</t>
+  </si>
+  <si>
+    <t>7090913878@k</t>
+  </si>
+  <si>
+    <t>Kamleshkm@gmail.com</t>
+  </si>
+  <si>
+    <t>Kamleshk@gmail.com</t>
+  </si>
+  <si>
+    <t>Kamles@gmail.com</t>
+  </si>
+  <si>
+    <t>222jjj</t>
+  </si>
+  <si>
+    <t>4555jkk</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,13 +111,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:V5"/>
     </sheetView>
   </sheetViews>
@@ -427,4 +472,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADB63BD-AE7B-4D07-A2D5-6E3E2F962BA6}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>451262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{B50BB4C6-0FB4-44FE-9DF5-F93D84C06428}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{4CE41F67-24C9-4FA9-9E6F-E8C8E2A708C8}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{1F0A3D2C-F2EA-4D22-A346-10BB3730F051}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>